--- a/ActiTime-Automation/Controller/data_Controller.xlsx
+++ b/ActiTime-Automation/Controller/data_Controller.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\CurrentWorkSpace\ExampleAutomation\ActiTime-Automation\Controller\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EVENING_SEPTEMBER-2019_BATCH\Automation\ActiTime-Automation\Controller\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19425" windowHeight="9195"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,6 +44,9 @@
     <t>Login</t>
   </si>
   <si>
+    <t>launchBrowser--&gt;navigate --&gt; Login--&gt;logout--&gt;closeApplication</t>
+  </si>
+  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -53,18 +56,27 @@
     <t>CreateUser</t>
   </si>
   <si>
+    <t>launchBrowser--&gt;navigate --&gt; Login--&gt;CreateUser--&gt;DeleteUser--&gt;logout--&gt;closeApplication</t>
+  </si>
+  <si>
     <t>TC03</t>
   </si>
   <si>
     <t>ModifyUser</t>
   </si>
   <si>
+    <t>launchBrowser--&gt;navigate --&gt; Login--&gt;CreateUser--&gt;ModifyUser--&gt;DeleteUser--&gt;logout--&gt;closeApplication</t>
+  </si>
+  <si>
     <t>TC04</t>
   </si>
   <si>
     <t>CreateCustomer</t>
   </si>
   <si>
+    <t>launchBrowser--&gt;navigate --&gt; Login--&gt;CreateCustomer--&gt;DeleteCustomer--&gt;logout--&gt;closeApplication</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -74,43 +86,31 @@
     <t>ModifyCustomer</t>
   </si>
   <si>
+    <t>launchBrowser--&gt;navigate --&gt; Login--&gt;CreateCustomer--&gt;ModifyCustomer--&gt;DeleteCustomer--&gt;logout--&gt;closeApplication</t>
+  </si>
+  <si>
     <t>TC06</t>
   </si>
   <si>
     <t>CreateProject</t>
   </si>
   <si>
+    <t>launchBrowser--&gt;navigate --&gt; Login--&gt;CreateCustomer--&gt;CreateProject--&gt;DeleteProject--&gt;DeleteCustomer--&gt;logout--&gt;closeApplication</t>
+  </si>
+  <si>
     <t>TC07</t>
   </si>
   <si>
     <t>ModifyProject</t>
   </si>
   <si>
-    <t>launchBrowser--&gt;navigate --&gt; Login--&gt;minimizeFlyOutWindow--&gt;logout--&gt;closeApplication</t>
-  </si>
-  <si>
-    <t>launchBrowser--&gt;navigate --&gt; Login--&gt;minimizeFlyOutWindow--&gt;CreateUser--&gt;DeleteUser--&gt;logout--&gt;closeApplication</t>
-  </si>
-  <si>
-    <t>launchBrowser--&gt;navigate --&gt; Login--&gt;minimizeFlyOutWindow--&gt;CreateUser--&gt;ModifyUser--&gt;DeleteUser--&gt;logout--&gt;closeApplication</t>
-  </si>
-  <si>
-    <t>launchBrowser--&gt;navigate --&gt; Login--&gt;minimizeFlyOutWindow --&gt; CreateCustomer--&gt;DeleteCustomer--&gt;logout--&gt;closeApplication</t>
-  </si>
-  <si>
-    <t>launchBrowser--&gt;navigate --&gt; Login--&gt;minimizeFlyOutWindow --&gt;CreateCustomer--&gt;ModifyCustomer--&gt;DeleteCustomer--&gt;logout--&gt;closeApplication</t>
-  </si>
-  <si>
-    <t>launchBrowser--&gt;navigate --&gt; Login--&gt;minimizeFlyOutWindow --&gt;CreateCustomer--&gt;CreateProject--&gt;DeleteProject--&gt;DeleteCustomer--&gt;logout--&gt;closeApplication</t>
-  </si>
-  <si>
-    <t>launchBrowser--&gt;navigate --&gt; Login--&gt;minimizeFlyOutWindow --&gt;CreateCustomer--&gt;CreateProject--&gt;ModifyProject--&gt;DeleteProject--&gt;DeleteCustomer--&gt;logout--&gt;closeApplication</t>
+    <t>launchBrowser--&gt;navigate --&gt; Login--&gt;CreateCustomer--&gt;CreateProject--&gt;ModifyProject--&gt;DeleteProject--&gt;DeleteCustomer--&gt;logout--&gt;closeApplication</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -128,21 +128,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -224,6 +218,34 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -243,6 +265,21 @@
         <color indexed="64"/>
       </left>
       <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -257,24 +294,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -335,7 +373,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -370,7 +408,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -557,132 +595,131 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="84" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
+      <c r="D6" s="9" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="6" t="s">
+    <row r="7" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>6</v>
+      <c r="B7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="6" t="s">
+    <row r="8" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="10" t="s">
+      <c r="B8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>17</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <dataConsolidate/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D8">
       <formula1>"Yes,No"</formula1>
